--- a/biology/Botanique/Naohide_Hiratsuka/Naohide_Hiratsuka.xlsx
+++ b/biology/Botanique/Naohide_Hiratsuka/Naohide_Hiratsuka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,21 +490,23 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Naohidé Hiratsuka (平塚 直秀, Hiratsuka Naohide?) est un botaniste, mycologue et phytopathologiste japonais, né le 28 août 1903 à Kuriyama-cho, Yubari-gun, près de Sapporo (Hokkaidō) et mort le 24 juillet 2000.
-Il commence sa formation au département de biologie agricole de l'Université impériale de Hokkaidō en 1923, obtient sa licence en 1926, puis entre au cours d'études supérieures dans la même université la même année (domaine principal : mycologie) et y a été nommé professeur en 1928-1929. Il obtient le doctorat en agriculture de l'Université impériale de Hokkaido en 1936, puis un doctorat ès sciences de l'université de Hiroshima en 1954[1] . 
+Il commence sa formation au département de biologie agricole de l'Université impériale de Hokkaidō en 1923, obtient sa licence en 1926, puis entre au cours d'études supérieures dans la même université la même année (domaine principal : mycologie) et y a été nommé professeur en 1928-1929. Il obtient le doctorat en agriculture de l'Université impériale de Hokkaido en 1936, puis un doctorat ès sciences de l'université de Hiroshima en 1954 . 
 Nommé professeur de botanique et de phytopathologie au collège d'agriculture de Tottori, de 1929 à 1946.
 Les années suivantes, il occupe le poste de professeur de mycologie et de botanique au Collège d'Enseignement Agricole de Tōkyō de 1946 à 1949;
 Professeur de mycologie et phytopathologie à la Faculté d'agriculture, Université d'éducation de Tokyo, 1949-1967, et
 professeur de phytopathologie à l'Université nationale de Yokohama (1952-1954).
-En 1967, le Dr Hiratsuka retourne à Tottori en qualité de directeur du Tottori Mycological Institute[2]. Au cours de cette période (1967-1994), il a également été professeur invité dans plusieurs universités chinoises, comme l'Université agricole (en) du Yunnan (1981); Conseiller scientifique à l'Institut de microbiologie, à l'Academia Sinica, Pékin (1981) et professeur émérite au Shihezi Agricultural College, Xinjiang (1986). 
-Le Dr Hiratsuka a acquis une large notoriété avec ses études en biologie de la rouille qui lui valent le prix de la Phytopathological Society of Japan (日本植物病理学会[3]) en 1958 et celui de la Japan Academy en 1962.  
-Devenu membre de l'Académie des Sciences du Japon (1973-2000 ), il est nommé président de la section II de l'Académie en 1993. Membre honoraire de la Société phytopathologique du Japon, de la Société mycologique du Japon (日本菌学会[4]), de la Botanical Society of Japan (日本植物学会), de la Japa Society for Biosciences, de la biotechnologie et de l'agrochimie, de la British Mycological Society, Société mycologique de Corée[5], Mycological Society of America et Societas Phytogeographica[6] (Kyoto[7]). 
-Les autres sociétés dont il était membre actif comprennent la Société mycologique de France, la Société de génétique du Japon, la Société japonaise de foresterie[8], la Société écologique du Japon, la Société japonaise de mycologie médicale, la Société de recherche des agents antibactériens et antifongiques (Japon), la Japan Society for Culture Collections, la Japan Society of Plant Taxonomists[9] et la Society for Actinomycetology (Japon). 
+En 1967, le Dr Hiratsuka retourne à Tottori en qualité de directeur du Tottori Mycological Institute. Au cours de cette période (1967-1994), il a également été professeur invité dans plusieurs universités chinoises, comme l'Université agricole (en) du Yunnan (1981); Conseiller scientifique à l'Institut de microbiologie, à l'Academia Sinica, Pékin (1981) et professeur émérite au Shihezi Agricultural College, Xinjiang (1986). 
+Le Dr Hiratsuka a acquis une large notoriété avec ses études en biologie de la rouille qui lui valent le prix de la Phytopathological Society of Japan (日本植物病理学会) en 1958 et celui de la Japan Academy en 1962.  
+Devenu membre de l'Académie des Sciences du Japon (1973-2000 ), il est nommé président de la section II de l'Académie en 1993. Membre honoraire de la Société phytopathologique du Japon, de la Société mycologique du Japon (日本菌学会), de la Botanical Society of Japan (日本植物学会), de la Japa Society for Biosciences, de la biotechnologie et de l'agrochimie, de la British Mycological Society, Société mycologique de Corée, Mycological Society of America et Societas Phytogeographica (Kyoto). 
+Les autres sociétés dont il était membre actif comprennent la Société mycologique de France, la Société de génétique du Japon, la Société japonaise de foresterie, la Société écologique du Japon, la Société japonaise de mycologie médicale, la Société de recherche des agents antibactériens et antifongiques (Japon), la Japan Society for Culture Collections, la Japan Society of Plant Taxonomists et la Society for Actinomycetology (Japon). 
 Il a été président de la Société phytopathologique du Japon (1962-63) et de la Société mycologique du Japon (1962-1968). 
 Beaucoup garderont le souvenir de sa présidence du 3e Congrès mycologique international de Tokyo (1983), et de la fameuse conférence : « Passé, présent et futur de la taxinomie de la rouille » qu'il donna après la cérémonie d'ouverture. 
-Le père de Naohidé, Naoharu Hiratsuka, avait lui aussi étudié la rouille du lin (Melampsora lini) et publié plusieurs articles de revues sur les rouilles, le premier en 1898. Mais il a rapidement intégré une entreprise textile de lin et n'a pas poursuivi d'études phytopathologiques. C'est sans doute l'urédinologie paternelle qui a suscité la vocation du jeune Dr Hiratsuka pour les rouilles; ses premiers articles publiés (1926) portaient déjà sur les genres Melarnpsoridium et Melampsora[10]. 
+Le père de Naohidé, Naoharu Hiratsuka, avait lui aussi étudié la rouille du lin (Melampsora lini) et publié plusieurs articles de revues sur les rouilles, le premier en 1898. Mais il a rapidement intégré une entreprise textile de lin et n'a pas poursuivi d'études phytopathologiques. C'est sans doute l'urédinologie paternelle qui a suscité la vocation du jeune Dr Hiratsuka pour les rouilles; ses premiers articles publiés (1926) portaient déjà sur les genres Melarnpsoridium et Melampsora. 
 Par la suite, le Dr Hiratsuka publiera plus de 400 articles et livres sur les Pucciniales au cours de 65 années très actives. Ses intérêts pour les rouilles allaient de la taxinomie, la morphologie et les cycles de vie à la biogéographie et à la résistance de l'hôte. Ses études taxinomiques comprennent de nombreuses monographies de traitement de taxons de rouille, y compris les genres Melampsoridium, Melampsora, Puccinia spp. Sur plusieurs groupes d'hôtes, Uromyces et Harnaspora et la famille Melampsoraceae. 
 Deux monographies remarquables détonent : "Une monographie des Pucciniastreae" (1936) et "Révision de la taxonomie de Puccinia streae "(1958). La publication principale dans ce domaine était "La flore des rouilles du Japon" (1992), publiée par 10 co-auteurs (principalement des étudiants du Dr Hiratsuka). Les intérêts du Dr Hiratsuka se sont également étendus aux aspects appliqués de l'urédinologie, et bon nombre de ses études ont fourni les bases nécessaires aux agriculteurs pour combattre les rouilles des cultures au Japon et en Asie.
 Ses expériences d'inoculation pour détecter des hôtes alternants dans le cas d'espèces hétéroïques (ou hétéroxènes) ont été résumées dans un article en 1983 (Rept. Tottori Mycol. Inst. No. 22, avec S. Sato et  M. Kakishima). Il a également exploré la zone de résistance et de sensibilité des graminées sauvages et cultivées aux rouilles céréalières. Ces études ont conduit à la publication de "Uredinological Studies" (1955), un livre résumant ses recherches sur cet aspect et d'autres aspects de la biologie de la rouille. Différents prix de recherche, décernés par la Phytopathological Society of Japan (1958) et le Japan Academy Prize (1962), ont récompensé ce livre et d'autres publications sur les rouilles.
@@ -529,7 +541,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Togashi, K.; Hiratsuka, N. (1924). Parasitic fungi collected in the Noohappu peninsula, Hokkaido. Journ. Sapporo Agr. and Forestry Soc. 16 (68): 73-81. 
 Hiratsuka, N. (1926). On the abnormal teleutospore-form of Melampsora (Studies on Melampsoraceae of Japan. II). Journ. Soc. Agric. and Forestry Sapporo 18 (81): 70-74. 
